--- a/06-03-2023/data/output/xlsx/Causality for Category/7.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/7.xlsx
@@ -49,81 +49,78 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
+    <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__13</t>
   </si>
   <si>
@@ -142,75 +139,75 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_decimals__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_decimals__12</t>
   </si>
   <si>
@@ -265,135 +262,135 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_decimals__30</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_equals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_equals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_equals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_equals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_equals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_equals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_equals__14</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__9</t>
   </si>
   <si>
@@ -409,48 +406,48 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_unknowns__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>num_of_unknowns__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+  </si>
+  <si>
     <t>num_of_unknowns__8</t>
   </si>
   <si>
@@ -466,51 +463,51 @@
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_unknowns__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>pairs_of_parentheses__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>pairs_of_parentheses__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7</t>
   </si>
   <si>
     <t>pairs_of_parentheses__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__8</t>
   </si>
   <si>
@@ -530,6 +527,9 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>

--- a/06-03-2023/data/output/xlsx/Causality for Category/7.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="215">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -58,183 +58,231 @@
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__13</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__14</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__15</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__17</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_decimals__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__13</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__14</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__15</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__16</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_decimals__17</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
     <t>num_of_decimals__18</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
     <t>num_of_decimals__19</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
     <t>num_of_decimals__20</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8</t>
+  </si>
+  <si>
     <t>num_of_decimals__21</t>
   </si>
   <si>
@@ -268,127 +316,133 @@
     <t>num_of_equals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_equals__13</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_equals__14</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__9</t>
@@ -415,121 +469,163 @@
     <t>num_of_unknowns__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_unknowns__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_unknowns__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>num_of_unknowns__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_unknowns__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_unknowns__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_unknowns__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_unknowns__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>num_of_unknowns__13</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>pairs_of_parentheses__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__17,num_of_decimals__18,num_of_decimals__19,num_of_decimals__20,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__13,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__13</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__14,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__14</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__15</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__15</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_adds_and_subs__17,num_of_adds_and_subs__18,num_of_adds_and_subs__19,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_equals__13,num_of_equals__14,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,num_of_unknowns__11,num_of_unknowns__12,num_of_unknowns__13,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6,pairs_of_parentheses__7,pairs_of_parentheses__8,pairs_of_parentheses__9,pairs_of_parentheses__10,pairs_of_parentheses__11,pairs_of_parentheses__12,pairs_of_parentheses__13,pairs_of_parentheses__14</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -685,10 +781,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$17</c:f>
+              <c:f>AddsSubs!$C$4:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -724,51 +820,93 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$17</c:f>
+              <c:f>AddsSubs!$D$4:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.03166496424923392</c:v>
+                  <c:v>0.0449438202247191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03631961259079903</c:v>
+                  <c:v>0.05084745762711865</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05825242718446602</c:v>
+                  <c:v>0.08737864077669903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08080808080808081</c:v>
+                  <c:v>0.1212121212121212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0761904761904762</c:v>
+                  <c:v>0.1428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.08860759493670886</c:v>
+                  <c:v>0.1645569620253164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.07692307692307693</c:v>
+                  <c:v>0.1923076923076923</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>0.225</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1818181818181818</c:v>
+                  <c:v>0.3181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.2777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.1666666666666667</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1111111111111111</c:v>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,7 +963,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 7</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -927,25 +1065,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.053475935828877</c:v>
+                  <c:v>0.09090909090909091</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0352112676056338</c:v>
+                  <c:v>0.07042253521126761</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03225806451612903</c:v>
+                  <c:v>0.07526881720430108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0410958904109589</c:v>
+                  <c:v>0.0958904109589041</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03703703703703703</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.05405405405405406</c:v>
+                  <c:v>0.1621621621621622</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.09090909090909091</c:v>
+                  <c:v>0.1363636363636364</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.05882352941176471</c:v>
@@ -1005,7 +1143,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 7</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1069,10 +1207,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$17</c:f>
+              <c:f>Equations!$C$4:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1108,51 +1246,63 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$17</c:f>
+              <c:f>Equations!$D$4:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.0320962888665998</c:v>
+                  <c:v>0.04513540621865597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03229061553985873</c:v>
+                  <c:v>0.04540867810292634</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04823747680890538</c:v>
+                  <c:v>0.06864564007421151</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06104651162790697</c:v>
+                  <c:v>0.09302325581395349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08333333333333333</c:v>
+                  <c:v>0.1274509803921569</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.09558823529411764</c:v>
+                  <c:v>0.1544117647058824</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1195652173913044</c:v>
+                  <c:v>0.1847826086956522</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.2037037037037037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1142857142857143</c:v>
+                  <c:v>0.2571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1176470588235294</c:v>
+                  <c:v>0.2941176470588235</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2222222222222222</c:v>
+                  <c:v>0.4444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2</c:v>
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1209,7 +1359,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 7</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1273,10 +1423,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$16</c:f>
+              <c:f>Decimals!$C$4:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1309,48 +1459,102 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$16</c:f>
+              <c:f>Decimals!$D$4:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0.04340836012861737</c:v>
+                  <c:v>0.05627009646302251</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04471544715447155</c:v>
+                  <c:v>0.05894308943089431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04657534246575343</c:v>
+                  <c:v>0.06301369863013699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06324110671936758</c:v>
+                  <c:v>0.08695652173913043</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09580838323353294</c:v>
+                  <c:v>0.1317365269461078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1031746031746032</c:v>
+                  <c:v>0.1587301587301587</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1058823529411765</c:v>
+                  <c:v>0.1882352941176471</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.09230769230769231</c:v>
+                  <c:v>0.1846153846153846</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0975609756097561</c:v>
+                  <c:v>0.1951219512195122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.03225806451612903</c:v>
+                  <c:v>0.1935483870967742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.04347826086956522</c:v>
+                  <c:v>0.2608695652173913</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1407,7 +1611,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 7</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1471,10 +1675,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$12</c:f>
+              <c:f>Unknowns!$C$4:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1495,36 +1699,72 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$12</c:f>
+              <c:f>Unknowns!$D$4:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.03206412825651302</c:v>
+                  <c:v>0.04509018036072145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03367496339677892</c:v>
+                  <c:v>0.05124450951683748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08421052631578947</c:v>
+                  <c:v>0.1578947368421053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.09615384615384616</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04347826086956522</c:v>
+                  <c:v>0.1739130434782609</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.07142857142857142</c:v>
+                  <c:v>0.2142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.09090909090909091</c:v>
+                  <c:v>0.1818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1581,7 +1821,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 7</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1645,10 +1885,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$12</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1669,36 +1909,84 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$12</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.06030150753768844</c:v>
+                  <c:v>0.08793969849246232</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1019108280254777</c:v>
+                  <c:v>0.1592356687898089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1066666666666667</c:v>
+                  <c:v>0.1733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04651162790697674</c:v>
+                  <c:v>0.186046511627907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1176470588235294</c:v>
+                  <c:v>0.2941176470588235</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,7 +2043,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 7</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2321,10 +2609,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.03166496424923392</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="E3" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
@@ -2342,16 +2630,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.03631961259079903</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="E4" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>0.09062161407338334</v>
+        <v>0.2932630603886183</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2365,16 +2653,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.05825242718446602</v>
+        <v>0.08737864077669903</v>
       </c>
       <c r="E5" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1">
-        <v>0.07814380947036294</v>
+        <v>0.2916755228641335</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2388,16 +2676,16 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.08080808080808081</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="E6" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>0.06785996190248443</v>
+        <v>0.3162100603674424</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2411,16 +2699,16 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0761904761904762</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E7" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="1">
-        <v>0.04676760419452652</v>
+        <v>0.3092344014816206</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2434,16 +2722,16 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.08860759493670886</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="E8" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1">
-        <v>0.05391173150817462</v>
+        <v>0.3262530843083193</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2457,16 +2745,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0.07692307692307693</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="E9" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="1">
-        <v>0.01359902696960811</v>
+        <v>0.3169965381203877</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2480,16 +2768,16 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1</v>
+        <v>0.225</v>
       </c>
       <c r="E10" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="1">
-        <v>0.03024778537842564</v>
+        <v>0.3291541208201414</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2503,16 +2791,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0.1818181818181818</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="E11" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="1">
-        <v>0.09946119129391066</v>
+        <v>0.4278849290745162</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2526,16 +2814,16 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0.1666666666666667</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="E12" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="1">
-        <v>0.0593488555661752</v>
+        <v>0.3845991945470559</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2549,16 +2837,16 @@
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E13" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="1">
-        <v>-0.03107336349309952</v>
+        <v>0.2333374908243159</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2572,16 +2860,16 @@
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E14" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="1">
-        <v>-0.01862571439488262</v>
+        <v>0.3795520172407089</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2595,19 +2883,21 @@
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E15" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.3132046247497401</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
@@ -2616,19 +2906,21 @@
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E16" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.3309602222113975</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -2637,19 +2929,21 @@
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E17" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.4401855208810185</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -2658,19 +2952,21 @@
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E18" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.5526595488404318</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2679,19 +2975,21 @@
         <v>17</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.6742765713086142</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2700,19 +2998,21 @@
         <v>18</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.6742765713086142</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2721,19 +3021,21 @@
         <v>19</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.6742765713086142</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
         <v>622</v>
@@ -2742,21 +3044,21 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.04340836012861737</v>
+        <v>0.05627009646302251</v>
       </c>
       <c r="E22" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G22" s="1">
-        <v>0.09649871986040559</v>
+        <v>0.2619234245390692</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>492</v>
@@ -2765,21 +3067,21 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.04471544715447155</v>
+        <v>0.05894308943089431</v>
       </c>
       <c r="E23" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G23" s="1">
-        <v>0.00397817690213316</v>
+        <v>0.2318390609123952</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>365</v>
@@ -2788,21 +3090,21 @@
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.04657534246575343</v>
+        <v>0.06301369863013699</v>
       </c>
       <c r="E24" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G24" s="1">
-        <v>-0.09330432959375877</v>
+        <v>0.2148829766950531</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
         <v>253</v>
@@ -2811,21 +3113,21 @@
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.06324110671936758</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E25" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G25" s="1">
-        <v>-0.06699571699871447</v>
+        <v>0.2371056827980348</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1">
         <v>167</v>
@@ -2834,21 +3136,21 @@
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.09580838323353294</v>
+        <v>0.1317365269461078</v>
       </c>
       <c r="E26" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G26" s="1">
-        <v>-0.02765661962027767</v>
+        <v>0.2921632672791345</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1">
         <v>126</v>
@@ -2857,21 +3159,21 @@
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0.1031746031746032</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="E27" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G27" s="1">
-        <v>-0.01578772321414449</v>
+        <v>0.3128863690364997</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1">
         <v>85</v>
@@ -2880,21 +3182,21 @@
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0.1058823529411765</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="E28" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G28" s="1">
-        <v>-0.04106683076791052</v>
+        <v>0.3632091554381934</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1">
         <v>65</v>
@@ -2903,21 +3205,21 @@
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0.09230769230769231</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="E29" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G29" s="1">
-        <v>-0.04543633136789829</v>
+        <v>0.3698309279181429</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1">
         <v>41</v>
@@ -2926,21 +3228,21 @@
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0.0975609756097561</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="E30" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G30" s="1">
-        <v>-0.04223865826446916</v>
+        <v>0.3642708360800477</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1">
         <v>31</v>
@@ -2949,21 +3251,21 @@
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0.03225806451612903</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="E31" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G31" s="1">
-        <v>-0.0718864032908398</v>
+        <v>0.3817425737903873</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1">
         <v>23</v>
@@ -2972,21 +3274,21 @@
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0.04347826086956522</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E32" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G32" s="1">
-        <v>-0.05710534868752701</v>
+        <v>0.4228653259774685</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1">
         <v>15</v>
@@ -2995,19 +3297,21 @@
         <v>31</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E33" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.4363816791403101</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B34" s="1">
         <v>10</v>
@@ -3016,19 +3320,21 @@
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E34" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.4182226006994046</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B35" s="1">
         <v>7</v>
@@ -3037,19 +3343,21 @@
         <v>33</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E35" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.4780967996867831</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
@@ -3058,19 +3366,21 @@
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E36" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.5703251866150094</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B37" s="1">
         <v>6</v>
@@ -3079,19 +3389,21 @@
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E37" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.5703251866150094</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
@@ -3100,19 +3412,21 @@
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E38" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.1919222028133712</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -3121,19 +3435,21 @@
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E39" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.259222241656883</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -3142,19 +3458,21 @@
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E40" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.259222241656883</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -3163,19 +3481,21 @@
         <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E41" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.09309361461396309</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -3187,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
@@ -3196,7 +3516,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -3208,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
@@ -3217,7 +3537,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -3229,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
@@ -3238,7 +3558,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -3250,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
@@ -3259,7 +3579,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -3271,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
@@ -3280,7 +3600,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -3292,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
@@ -3301,7 +3621,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -3313,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
@@ -3322,7 +3642,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -3334,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
@@ -3343,7 +3663,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -3355,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
@@ -3364,7 +3684,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -3376,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
@@ -3385,7 +3705,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B52" s="1">
         <v>997</v>
@@ -3394,21 +3714,21 @@
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.0320962888665998</v>
+        <v>0.04513540621865597</v>
       </c>
       <c r="E52" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="G52" s="1">
-        <v>0.08588293049900363</v>
+        <v>0.2890239982700711</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B53" s="1">
         <v>991</v>
@@ -3417,21 +3737,21 @@
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.03229061553985873</v>
+        <v>0.04540867810292634</v>
       </c>
       <c r="E53" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G53" s="1">
-        <v>0.08596809032847276</v>
+        <v>0.2891129806285399</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B54" s="1">
         <v>539</v>
@@ -3440,21 +3760,21 @@
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0.04823747680890538</v>
+        <v>0.06864564007421151</v>
       </c>
       <c r="E54" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G54" s="1">
-        <v>0.06861603718574726</v>
+        <v>0.2092070360957296</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B55" s="1">
         <v>344</v>
@@ -3463,21 +3783,21 @@
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0.06104651162790697</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="E55" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="G55" s="1">
-        <v>0.06436964008666747</v>
+        <v>0.2377733829319028</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B56" s="1">
         <v>204</v>
@@ -3486,21 +3806,21 @@
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0.08333333333333333</v>
+        <v>0.1274509803921569</v>
       </c>
       <c r="E56" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="G56" s="1">
-        <v>0.07224071804897159</v>
+        <v>0.2669731519876151</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B57" s="1">
         <v>136</v>
@@ -3509,21 +3829,21 @@
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0.09558823529411764</v>
+        <v>0.1544117647058824</v>
       </c>
       <c r="E57" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="G57" s="1">
-        <v>0.07774161206936929</v>
+        <v>0.2877240199034581</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B58" s="1">
         <v>92</v>
@@ -3532,21 +3852,21 @@
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.1195652173913044</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="E58" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G58" s="1">
-        <v>0.05714076066865607</v>
+        <v>0.2989565073658074</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B59" s="1">
         <v>54</v>
@@ -3555,21 +3875,21 @@
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="E59" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="G59" s="1">
-        <v>0.05538855748635695</v>
+        <v>0.3355874018749996</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B60" s="1">
         <v>35</v>
@@ -3578,21 +3898,21 @@
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.1142857142857143</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="E60" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="G60" s="1">
-        <v>0.04590307525814948</v>
+        <v>0.2913718253796985</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B61" s="1">
         <v>17</v>
@@ -3601,21 +3921,21 @@
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0.1176470588235294</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="E61" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G61" s="1">
-        <v>0.03112036159235254</v>
+        <v>0.2219143083765528</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B62" s="1">
         <v>9</v>
@@ -3624,21 +3944,21 @@
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E62" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="G62" s="1">
-        <v>0.09797583171560978</v>
+        <v>0.3745623779919569</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -3647,21 +3967,21 @@
         <v>61</v>
       </c>
       <c r="D63" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E63" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G63" s="1">
-        <v>0.02516220262834746</v>
+        <v>0.3593689279074361</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3670,19 +3990,21 @@
         <v>62</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.8756135721760753</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -3691,19 +4013,21 @@
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.8756135721760753</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B66" s="1">
         <v>187</v>
@@ -3712,21 +4036,21 @@
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.053475935828877</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E66" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G66" s="1">
-        <v>-0.06851180366561965</v>
+        <v>0.3072192544261069</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B67" s="1">
         <v>142</v>
@@ -3735,21 +4059,21 @@
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.0352112676056338</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="E67" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G67" s="1">
-        <v>-0.08147162295118929</v>
+        <v>0.2885912714991962</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B68" s="1">
         <v>93</v>
@@ -3758,21 +4082,21 @@
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.03225806451612903</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="E68" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G68" s="1">
-        <v>-0.05976660887318064</v>
+        <v>0.3416045664538425</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B69" s="1">
         <v>73</v>
@@ -3781,21 +4105,21 @@
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0.0410958904109589</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="E69" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="G69" s="1">
-        <v>-0.04090906406845985</v>
+        <v>0.4254595422483353</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B70" s="1">
         <v>54</v>
@@ -3804,21 +4128,21 @@
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0.03703703703703703</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E70" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="G70" s="1">
-        <v>-0.03774787336419584</v>
+        <v>0.4446908163145279</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B71" s="1">
         <v>37</v>
@@ -3827,21 +4151,21 @@
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0.05405405405405406</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="E71" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="G71" s="1">
-        <v>-0.02889574988876376</v>
+        <v>0.464218986323606</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B72" s="1">
         <v>22</v>
@@ -3850,21 +4174,21 @@
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.09090909090909091</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="E72" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="G72" s="1">
-        <v>0.03454521779378385</v>
+        <v>-0.1028194328139058</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B73" s="1">
         <v>17</v>
@@ -3876,18 +4200,18 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="E73" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G73" s="1">
-        <v>-0.02063616248711368</v>
+        <v>-0.187903407382332</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B74" s="1">
         <v>11</v>
@@ -3899,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
@@ -3908,7 +4232,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B75" s="1">
         <v>8</v>
@@ -3920,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
@@ -3929,7 +4253,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B76" s="1">
         <v>5</v>
@@ -3941,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
@@ -3950,7 +4274,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
@@ -3962,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
@@ -3971,7 +4295,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -3983,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
@@ -3992,7 +4316,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -4004,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
@@ -4013,7 +4337,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B80" s="1">
         <v>998</v>
@@ -4022,10 +4346,10 @@
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="E80" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
@@ -4034,7 +4358,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B81" s="1">
         <v>683</v>
@@ -4043,21 +4367,21 @@
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.03367496339677892</v>
+        <v>0.05124450951683748</v>
       </c>
       <c r="E81" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="G81" s="1">
-        <v>0.07680494370940943</v>
+        <v>0.3042993391169395</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="B82" s="1">
         <v>95</v>
@@ -4066,21 +4390,21 @@
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0.08421052631578947</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="E82" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="G82" s="1">
-        <v>0.004619896881095548</v>
+        <v>0.2664001141440933</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B83" s="1">
         <v>52</v>
@@ -4089,21 +4413,21 @@
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0.09615384615384616</v>
+        <v>0.25</v>
       </c>
       <c r="E83" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="G83" s="1">
-        <v>-0.04849784991151881</v>
+        <v>0.2921411087348441</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B84" s="1">
         <v>23</v>
@@ -4112,21 +4436,21 @@
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0.04347826086956522</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="E84" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="G84" s="1">
-        <v>-0.05675019494708491</v>
+        <v>0.1946123601565744</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -4135,21 +4459,21 @@
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0.07142857142857142</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E85" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G85" s="1">
-        <v>-0.04143527141782527</v>
+        <v>0.234124325068759</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B86" s="1">
         <v>11</v>
@@ -4158,21 +4482,21 @@
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E86" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="G86" s="1">
-        <v>-0.03068347069361151</v>
+        <v>0.241799732054067</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B87" s="1">
         <v>7</v>
@@ -4181,19 +4505,21 @@
         <v>85</v>
       </c>
       <c r="D87" s="1">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E87" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.2182242530215451</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B88" s="1">
         <v>5</v>
@@ -4202,19 +4528,21 @@
         <v>86</v>
       </c>
       <c r="D88" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E88" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.3382550730960582</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -4223,19 +4551,21 @@
         <v>87</v>
       </c>
       <c r="D89" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E89" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.4363920358807395</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
@@ -4244,19 +4574,21 @@
         <v>88</v>
       </c>
       <c r="D90" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E90" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.5331634069929929</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -4265,19 +4597,21 @@
         <v>89</v>
       </c>
       <c r="D91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.8756135721760753</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -4286,19 +4620,21 @@
         <v>90</v>
       </c>
       <c r="D92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.8756135721760753</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B93" s="1">
         <v>398</v>
@@ -4307,21 +4643,21 @@
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.06030150753768844</v>
+        <v>0.08793969849246232</v>
       </c>
       <c r="E93" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="G93" s="1">
-        <v>0.002279250458302557</v>
+        <v>0.243005188264978</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="B94" s="1">
         <v>157</v>
@@ -4330,21 +4666,21 @@
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.1019108280254777</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="E94" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="G94" s="1">
-        <v>0.06244157268858631</v>
+        <v>0.2858672714957152</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B95" s="1">
         <v>75</v>
@@ -4353,21 +4689,21 @@
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.1066666666666667</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="E95" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="G95" s="1">
-        <v>0.06609275663548383</v>
+        <v>0.323435490718384</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="B96" s="1">
         <v>43</v>
@@ -4376,21 +4712,21 @@
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.04651162790697674</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="E96" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="G96" s="1">
-        <v>-0.03893068033744246</v>
+        <v>0.3604320274515376</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B97" s="1">
         <v>25</v>
@@ -4399,21 +4735,21 @@
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0.08</v>
+        <v>0.28</v>
       </c>
       <c r="E97" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="G97" s="1">
-        <v>-0.0115950265920289</v>
+        <v>0.4079088311749923</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B98" s="1">
         <v>17</v>
@@ -4422,21 +4758,21 @@
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0.1176470588235294</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="E98" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="G98" s="1">
-        <v>0.01811130755192036</v>
+        <v>0.405680233740725</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B99" s="1">
         <v>8</v>
@@ -4445,21 +4781,21 @@
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E99" s="1">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="G99" s="1">
-        <v>0.09711155460150372</v>
+        <v>0.4633052896577373</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
@@ -4468,19 +4804,21 @@
         <v>98</v>
       </c>
       <c r="D100" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E100" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.5276662819513996</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
@@ -4489,19 +4827,21 @@
         <v>99</v>
       </c>
       <c r="D101" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E101" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.3901569848306405</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -4510,19 +4850,21 @@
         <v>100</v>
       </c>
       <c r="D102" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E102" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.3901569848306405</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -4531,19 +4873,21 @@
         <v>101</v>
       </c>
       <c r="D103" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E103" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.3901569848306405</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -4552,19 +4896,21 @@
         <v>102</v>
       </c>
       <c r="D104" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E104" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.3901569848306405</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -4573,19 +4919,21 @@
         <v>103</v>
       </c>
       <c r="D105" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E105" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.6026149361126122</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -4594,19 +4942,21 @@
         <v>104</v>
       </c>
       <c r="D106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.8756135721760753</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -4615,14 +4965,16 @@
         <v>105</v>
       </c>
       <c r="D107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" s="1">
-        <v>0.03206412825651302</v>
-      </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1" t="s">
-        <v>10</v>
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0.8756135721760753</v>
       </c>
     </row>
   </sheetData>
@@ -4632,7 +4984,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4643,7 +4995,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4666,25 +5018,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4698,13 +5050,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.03166496424923392</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="E4" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.0003991640072791083</v>
+        <v>-0.0001463601360023464</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4741,13 +5093,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.03631961259079903</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="E5" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F5" s="1">
-        <v>0.004255484334286005</v>
+        <v>0.005757277266397201</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4784,13 +5136,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.05825242718446602</v>
+        <v>0.08737864077669903</v>
       </c>
       <c r="E6" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F6" s="1">
-        <v>0.026188298927953</v>
+        <v>0.04228846041597759</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4827,13 +5179,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.08080808080808081</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="E7" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F7" s="1">
-        <v>0.04874395255156779</v>
+        <v>0.07612194085139977</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4870,13 +5222,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.0761904761904762</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E8" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F8" s="1">
-        <v>0.04412634793396317</v>
+        <v>0.0977669624964214</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -4913,13 +5265,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.08860759493670886</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="E9" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F9" s="1">
-        <v>0.05654346668019584</v>
+        <v>0.119466781664595</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -4956,13 +5308,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.07692307692307693</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="E10" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0448589486665639</v>
+        <v>0.1472175119469709</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -4999,13 +5351,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.1</v>
+        <v>0.225</v>
       </c>
       <c r="E11" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F11" s="1">
-        <v>0.06793587174348698</v>
+        <v>0.1799098196392785</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5042,13 +5394,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1818181818181818</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="E12" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F12" s="1">
-        <v>0.1497540535616688</v>
+        <v>0.2730916378210967</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -5085,13 +5437,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.1666666666666667</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="E13" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F13" s="1">
-        <v>0.1346025384101536</v>
+        <v>0.2326875974170564</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -5128,13 +5480,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E14" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F14" s="1">
-        <v>0.06793587174348698</v>
+        <v>0.1549098196392786</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -5171,13 +5523,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0.1111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E15" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F15" s="1">
-        <v>0.07904698285459807</v>
+        <v>0.1771320418615008</v>
       </c>
       <c r="G15" s="1">
         <f>1/(POWER(B15,1.5))</f>
@@ -5200,6 +5552,307 @@
       </c>
       <c r="L15" s="1">
         <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.07990981963927855</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.0977669624964214</v>
+      </c>
+      <c r="G17" s="1">
+        <f>1/(POWER(B17,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>G17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K17" s="1">
+        <f>I17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f>MIN(K17,1-D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.1215764863059452</v>
+      </c>
+      <c r="G18" s="1">
+        <f>1/(POWER(B18,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f>SQRT((D18-POWER(10,-4))*B18*((1-D18+POWER(10,-4))*B18))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f>G18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K18" s="1">
+        <f>I18*J18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f>MIN(K18,1-D18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.2049098196392786</v>
+      </c>
+      <c r="G19" s="1">
+        <f>1/(POWER(B19,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f>SQRT((D19-POWER(10,-4))*B19*((1-D19+POWER(10,-4))*B19))</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f>G19*H19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K19" s="1">
+        <f>I19*J19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f>MIN(K19,1-D19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.4549098196392786</v>
+      </c>
+      <c r="G20" s="1">
+        <f>1/(POWER(B20,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <f>SQRT((D20-POWER(10,-4))*B20*((1-D20+POWER(10,-4))*B20))</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K20" s="1">
+        <f>I20*J20</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <f>MIN(K20,1-D20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.4549098196392786</v>
+      </c>
+      <c r="G21" s="1">
+        <f>1/(POWER(B21,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f>SQRT((D21-POWER(10,-4))*B21*((1-D21+POWER(10,-4))*B21))</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f>G21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K21" s="1">
+        <f>I21*J21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <f>MIN(K21,1-D21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.4549098196392786</v>
+      </c>
+      <c r="G22" s="1">
+        <f>1/(POWER(B22,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f>SQRT((D22-POWER(10,-4))*B22*((1-D22+POWER(10,-4))*B22))</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <f>G22*H22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K22" s="1">
+        <f>I22*J22</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <f>MIN(K22,1-D22)</f>
         <v>0</v>
       </c>
     </row>
@@ -5222,7 +5875,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5245,30 +5898,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -5277,13 +5930,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.053475935828877</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E4" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F4" s="1">
-        <v>0.02141180757236398</v>
+        <v>0.04581891054836947</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5311,7 +5964,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -5320,13 +5973,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0352112676056338</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="E5" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F5" s="1">
-        <v>0.003147139349120781</v>
+        <v>0.02533235485054616</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5354,7 +6007,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B6" s="3">
         <v>93</v>
@@ -5363,13 +6016,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.03225806451612903</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="E6" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F6" s="1">
-        <v>0.000193936259616008</v>
+        <v>0.03017863684357963</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5397,7 +6050,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B7" s="3">
         <v>73</v>
@@ -5406,13 +6059,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0410958904109589</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="E7" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F7" s="1">
-        <v>0.009031762154445878</v>
+        <v>0.05080023059818266</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5440,7 +6093,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B8" s="3">
         <v>54</v>
@@ -5449,13 +6102,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.03703703703703703</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E8" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F8" s="1">
-        <v>0.004972908780524012</v>
+        <v>0.06602093075038966</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5483,7 +6136,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B9" s="3">
         <v>37</v>
@@ -5492,13 +6145,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.05405405405405406</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="E9" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F9" s="1">
-        <v>0.02198992579754103</v>
+        <v>0.1170719818014407</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5526,7 +6179,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B10" s="3">
         <v>22</v>
@@ -5535,13 +6188,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.09090909090909091</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="E10" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F10" s="1">
-        <v>0.05884496265257789</v>
+        <v>0.09127345600291491</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5569,7 +6222,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3">
         <v>17</v>
@@ -5581,10 +6234,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="E11" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F11" s="1">
-        <v>0.02675940115525168</v>
+        <v>0.01373334905104326</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5618,7 +6271,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5629,7 +6282,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5652,30 +6305,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -5684,13 +6337,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0320962888665998</v>
+        <v>0.04513540621865597</v>
       </c>
       <c r="E4" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F4" s="1">
-        <v>3.216061008677606E-05</v>
+        <v>4.522585793452494E-05</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5718,7 +6371,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -5727,13 +6380,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.03229061553985873</v>
+        <v>0.04540867810292634</v>
       </c>
       <c r="E5" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F5" s="1">
-        <v>0.0002264872833457054</v>
+        <v>0.0003184977422048887</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5761,7 +6414,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3">
         <v>539</v>
@@ -5770,13 +6423,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.04823747680890538</v>
+        <v>0.06864564007421151</v>
       </c>
       <c r="E6" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F6" s="1">
-        <v>0.01617334855239236</v>
+        <v>0.02355545971349006</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5804,7 +6457,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3">
         <v>344</v>
@@ -5813,13 +6466,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.06104651162790697</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="E7" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F7" s="1">
-        <v>0.02898238337139395</v>
+        <v>0.04793307545323204</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5847,7 +6500,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B8" s="3">
         <v>204</v>
@@ -5856,13 +6509,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.08333333333333333</v>
+        <v>0.1274509803921569</v>
       </c>
       <c r="E8" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F8" s="1">
-        <v>0.05126920507682031</v>
+        <v>0.08236080003143541</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5890,7 +6543,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B9" s="3">
         <v>136</v>
@@ -5899,13 +6552,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.09558823529411764</v>
+        <v>0.1544117647058824</v>
       </c>
       <c r="E9" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F9" s="1">
-        <v>0.06352410703760461</v>
+        <v>0.1093215843451609</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5933,7 +6586,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B10" s="3">
         <v>92</v>
@@ -5942,13 +6595,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.1195652173913044</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="E10" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F10" s="1">
-        <v>0.08750108913479132</v>
+        <v>0.1396924283349307</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5976,7 +6629,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B11" s="3">
         <v>54</v>
@@ -5985,13 +6638,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.1111111111111111</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="E11" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F11" s="1">
-        <v>0.07904698285459807</v>
+        <v>0.1586135233429822</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -6019,7 +6672,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3">
         <v>35</v>
@@ -6028,13 +6681,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1142857142857143</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="E12" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F12" s="1">
-        <v>0.08222158602920127</v>
+        <v>0.2120526767821357</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -6062,7 +6715,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B13" s="3">
         <v>17</v>
@@ -6071,13 +6724,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.1176470588235294</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="E13" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F13" s="1">
-        <v>0.08558293056701638</v>
+        <v>0.2490274666981021</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -6105,7 +6758,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B14" s="3">
         <v>9</v>
@@ -6114,13 +6767,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E14" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F14" s="1">
-        <v>0.1901580939657092</v>
+        <v>0.399354264083723</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -6148,7 +6801,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B15" s="3">
         <v>5</v>
@@ -6157,13 +6810,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E15" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F15" s="1">
-        <v>0.167935871743487</v>
+        <v>0.3549098196392786</v>
       </c>
       <c r="G15" s="1">
         <f>1/(POWER(B15,1.5))</f>
@@ -6186,6 +6839,92 @@
       </c>
       <c r="L15" s="1">
         <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.9549098196392786</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.9549098196392786</v>
+      </c>
+      <c r="G17" s="1">
+        <f>1/(POWER(B17,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>G17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K17" s="1">
+        <f>I17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f>MIN(K17,1-D17)</f>
         <v>0</v>
       </c>
     </row>
@@ -6197,7 +6936,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6208,7 +6947,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6231,30 +6970,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -6263,13 +7002,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.04340836012861737</v>
+        <v>0.05627009646302251</v>
       </c>
       <c r="E4" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F4" s="1">
-        <v>0.01134423187210434</v>
+        <v>0.01117991610230106</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6297,7 +7036,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -6306,13 +7045,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.04471544715447155</v>
+        <v>0.05894308943089431</v>
       </c>
       <c r="E5" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F5" s="1">
-        <v>0.01265131889795852</v>
+        <v>0.01385290907017286</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6340,7 +7079,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3">
         <v>365</v>
@@ -6349,13 +7088,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.04657534246575343</v>
+        <v>0.06301369863013699</v>
       </c>
       <c r="E6" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0145112142092404</v>
+        <v>0.01792351826941554</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6383,7 +7122,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3">
         <v>253</v>
@@ -6392,13 +7131,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.06324110671936758</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E7" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F7" s="1">
-        <v>0.03117697846285456</v>
+        <v>0.04186634137840899</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6426,7 +7165,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3">
         <v>167</v>
@@ -6435,13 +7174,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.09580838323353294</v>
+        <v>0.1317365269461078</v>
       </c>
       <c r="E8" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F8" s="1">
-        <v>0.06374425497701991</v>
+        <v>0.08664634658538635</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -6469,7 +7208,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B9" s="3">
         <v>126</v>
@@ -6478,13 +7217,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1031746031746032</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="E9" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F9" s="1">
-        <v>0.07111047491809014</v>
+        <v>0.1136399783694373</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -6512,7 +7251,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3">
         <v>85</v>
@@ -6521,13 +7260,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.1058823529411765</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="E10" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F10" s="1">
-        <v>0.07381822468466345</v>
+        <v>0.1431451137569256</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -6555,7 +7294,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3">
         <v>65</v>
@@ -6564,13 +7303,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.09230769230769231</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="E11" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F11" s="1">
-        <v>0.06024356405117929</v>
+        <v>0.1395252042546632</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -6598,7 +7337,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B12" s="3">
         <v>41</v>
@@ -6607,13 +7346,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.0975609756097561</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="E12" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F12" s="1">
-        <v>0.06549684735324307</v>
+        <v>0.1500317708587908</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -6641,7 +7380,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B13" s="3">
         <v>31</v>
@@ -6650,13 +7389,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.03225806451612903</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="E13" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F13" s="1">
-        <v>0.000193936259616008</v>
+        <v>0.1484582067360528</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -6684,7 +7423,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B14" s="3">
         <v>23</v>
@@ -6693,13 +7432,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.04347826086956522</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E14" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F14" s="1">
-        <v>0.01141413261305219</v>
+        <v>0.2157793848566699</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -6722,6 +7461,393 @@
       </c>
       <c r="L14" s="1">
         <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="3">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.2882431529726119</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.2549098196392786</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.3834812482107071</v>
+      </c>
+      <c r="G17" s="1">
+        <f>1/(POWER(B17,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>G17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K17" s="1">
+        <f>I17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f>MIN(K17,1-D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.4549098196392786</v>
+      </c>
+      <c r="G18" s="1">
+        <f>1/(POWER(B18,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f>SQRT((D18-POWER(10,-4))*B18*((1-D18+POWER(10,-4))*B18))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f>G18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K18" s="1">
+        <f>I18*J18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f>MIN(K18,1-D18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.4549098196392786</v>
+      </c>
+      <c r="G19" s="1">
+        <f>1/(POWER(B19,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f>SQRT((D19-POWER(10,-4))*B19*((1-D19+POWER(10,-4))*B19))</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f>G19*H19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K19" s="1">
+        <f>I19*J19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f>MIN(K19,1-D19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.3549098196392786</v>
+      </c>
+      <c r="G20" s="1">
+        <f>1/(POWER(B20,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <f>SQRT((D20-POWER(10,-4))*B20*((1-D20+POWER(10,-4))*B20))</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <f>G20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K20" s="1">
+        <f>I20*J20</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <f>MIN(K20,1-D20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.4549098196392786</v>
+      </c>
+      <c r="G21" s="1">
+        <f>1/(POWER(B21,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <f>SQRT((D21-POWER(10,-4))*B21*((1-D21+POWER(10,-4))*B21))</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <f>G21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K21" s="1">
+        <f>I21*J21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <f>MIN(K21,1-D21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.4549098196392786</v>
+      </c>
+      <c r="G22" s="1">
+        <f>1/(POWER(B22,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f>SQRT((D22-POWER(10,-4))*B22*((1-D22+POWER(10,-4))*B22))</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <f>G22*H22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K22" s="1">
+        <f>I22*J22</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <f>MIN(K22,1-D22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.2882431529726119</v>
+      </c>
+      <c r="G23" s="1">
+        <f>1/(POWER(B23,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f>SQRT((D23-POWER(10,-4))*B23*((1-D23+POWER(10,-4))*B23))</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <f>G23*H23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K23" s="1">
+        <f>I23*J23</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <f>MIN(K23,1-D23)</f>
         <v>0</v>
       </c>
     </row>
@@ -6733,7 +7859,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6744,7 +7870,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6767,30 +7893,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -6799,10 +7925,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="E4" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -6833,7 +7959,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -6842,13 +7968,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.03367496339677892</v>
+        <v>0.05124450951683748</v>
       </c>
       <c r="E5" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F5" s="1">
-        <v>0.001610835140265894</v>
+        <v>0.006154329156116037</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6876,7 +8002,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="B6" s="3">
         <v>95</v>
@@ -6885,13 +8011,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.08421052631578947</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="E6" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F6" s="1">
-        <v>0.05214639805927645</v>
+        <v>0.1128045564813838</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6919,7 +8045,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B7" s="3">
         <v>52</v>
@@ -6928,13 +8054,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.09615384615384616</v>
+        <v>0.25</v>
       </c>
       <c r="E7" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F7" s="1">
-        <v>0.06408971789733314</v>
+        <v>0.2049098196392786</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6962,7 +8088,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B8" s="3">
         <v>23</v>
@@ -6971,13 +8097,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.04347826086956522</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="E8" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F8" s="1">
-        <v>0.01141413261305219</v>
+        <v>0.1288228631175394</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -7005,7 +8131,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B9" s="3">
         <v>14</v>
@@ -7014,13 +8140,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.07142857142857142</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E9" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F9" s="1">
-        <v>0.0393644431720584</v>
+        <v>0.1691955339249928</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -7048,7 +8174,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B10" s="3">
         <v>11</v>
@@ -7057,13 +8183,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.09090909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E10" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F10" s="1">
-        <v>0.05884496265257789</v>
+        <v>0.1367280014574604</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -7086,6 +8212,264 @@
       </c>
       <c r="L10" s="1">
         <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.0977669624964214</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.1549098196392786</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.2882431529726119</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.4549098196392786</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.9549098196392786</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.9549098196392786</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
         <v>0</v>
       </c>
     </row>
@@ -7097,7 +8481,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7108,7 +8492,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7131,30 +8515,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -7163,13 +8547,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.06030150753768844</v>
+        <v>0.08793969849246232</v>
       </c>
       <c r="E4" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F4" s="1">
-        <v>0.02823737928117542</v>
+        <v>0.04284951813174087</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -7197,7 +8581,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -7206,13 +8590,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1019108280254777</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="E5" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F5" s="1">
-        <v>0.06984669976896468</v>
+        <v>0.1141454884290875</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -7240,7 +8624,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B6" s="3">
         <v>75</v>
@@ -7249,13 +8633,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.1066666666666667</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="E6" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F6" s="1">
-        <v>0.07460253841015366</v>
+        <v>0.1282431529726119</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -7283,7 +8667,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="B7" s="3">
         <v>43</v>
@@ -7292,13 +8676,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.04651162790697674</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="E7" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F7" s="1">
-        <v>0.01444749965046372</v>
+        <v>0.1409563312671855</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -7326,7 +8710,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B8" s="3">
         <v>25</v>
@@ -7335,13 +8719,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.08</v>
+        <v>0.28</v>
       </c>
       <c r="E8" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F8" s="1">
-        <v>0.04793587174348698</v>
+        <v>0.2349098196392786</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -7369,7 +8753,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B9" s="3">
         <v>17</v>
@@ -7378,13 +8762,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1176470588235294</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="E9" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F9" s="1">
-        <v>0.08558293056701638</v>
+        <v>0.2490274666981021</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -7412,7 +8796,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
@@ -7421,13 +8805,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="3">
-        <v>0.03206412825651302</v>
+        <v>0.04509018036072145</v>
       </c>
       <c r="F10" s="1">
-        <v>0.217935871743487</v>
+        <v>0.4549098196392786</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -7450,6 +8834,350 @@
       </c>
       <c r="L10" s="1">
         <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.4549098196392786</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.2882431529726119</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.2882431529726119</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.2882431529726119</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.2882431529726119</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.4549098196392786</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.9549098196392786</v>
+      </c>
+      <c r="G17" s="1">
+        <f>1/(POWER(B17,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>G17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K17" s="1">
+        <f>I17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f>MIN(K17,1-D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.04509018036072145</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.9549098196392786</v>
+      </c>
+      <c r="G18" s="1">
+        <f>1/(POWER(B18,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f>SQRT((D18-POWER(10,-4))*B18*((1-D18+POWER(10,-4))*B18))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f>G18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K18" s="1">
+        <f>I18*J18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f>MIN(K18,1-D18)</f>
         <v>0</v>
       </c>
     </row>
